--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuch\WiSig Dropbox\kiran kuchi\work\WiSig\wisigppts\FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{EE7B42FB-258C-6747-A860-4BA146B1851F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1AA13E58-A607-474F-AB2C-8960F7460324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
   <si>
     <t>Platform</t>
   </si>
@@ -285,9 +285,6 @@
     <t>NP83</t>
   </si>
   <si>
-    <t>Triangle, Circle, Python math libraries, C programming</t>
-  </si>
-  <si>
     <t>NP84</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>Math library, functions, loops, arrays</t>
+  </si>
+  <si>
+    <t>Triangle, Circle, Python math libraries</t>
   </si>
 </sst>
 </file>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="18" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3">
         <f>2*30</f>
@@ -1182,7 +1182,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1238,10 +1238,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2">
         <v>60</v>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="3" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D3" s="2">
         <v>30</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>76</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>67</v>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuch\WiSig Dropbox\kiran kuchi\work\WiSig\wisigppts\FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1AA13E58-A607-474F-AB2C-8960F7460324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{F8B49D29-5932-6D42-A7E9-C6546F569628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>Platform</t>
   </si>
@@ -291,9 +291,6 @@
     <t>C programming on hardware</t>
   </si>
   <si>
-    <t>NP20,NP80</t>
-  </si>
-  <si>
     <t>NP85</t>
   </si>
   <si>
@@ -310,6 +307,24 @@
   </si>
   <si>
     <t>Triangle, Circle, Python math libraries</t>
+  </si>
+  <si>
+    <t>NP20, NP80, NP01</t>
+  </si>
+  <si>
+    <t>NP22</t>
+  </si>
+  <si>
+    <t>NP02</t>
+  </si>
+  <si>
+    <t>Scientific Computing through C</t>
+  </si>
+  <si>
+    <t>Numerical methods for ODE, minimization algorithms, linear and polynomial equations</t>
+  </si>
+  <si>
+    <t>NP80, NP01</t>
   </si>
 </sst>
 </file>
@@ -428,7 +443,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,7 +758,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1180,7 @@
     </row>
     <row r="18" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>80</v>
@@ -1182,7 +1199,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1192,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E2B5CB-EFE8-C444-934D-268042173892}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1238,10 +1255,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2">
         <v>60</v>
@@ -1259,13 +1276,13 @@
     </row>
     <row r="3" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D3" s="2">
         <v>30</v>
@@ -1281,38 +1298,39 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D4" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>120</v>
@@ -1324,18 +1342,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>120</v>
@@ -1350,15 +1368,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2">
         <v>120</v>
@@ -1370,18 +1388,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2">
         <v>120</v>
@@ -1393,29 +1411,52 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>71</v>
       </c>
     </row>

--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuch\WiSig Dropbox\kiran kuchi\work\WiSig\wisigppts\FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{F8B49D29-5932-6D42-A7E9-C6546F569628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D1F2BAB8-E297-204A-B624-83500FE255B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hardware" sheetId="6" r:id="rId1"/>
     <sheet name="software" sheetId="8" r:id="rId2"/>
+    <sheet name="school" sheetId="9" r:id="rId3"/>
+    <sheet name="college" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
   <si>
     <t>Platform</t>
   </si>
@@ -325,13 +327,106 @@
   </si>
   <si>
     <t>NP80, NP01</t>
+  </si>
+  <si>
+    <t>NP1000</t>
+  </si>
+  <si>
+    <t>Nonlinear Polynomials</t>
+  </si>
+  <si>
+    <t>Quadratic Equations, Polynomial Properties</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Axioms, Applications</t>
+  </si>
+  <si>
+    <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>Progressions, Rational and Irrational Numbers</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Matrices and Applications</t>
+  </si>
+  <si>
+    <t>Coordinate Geometry, Linear Equations</t>
+  </si>
+  <si>
+    <t>NP1001</t>
+  </si>
+  <si>
+    <t>NP1002</t>
+  </si>
+  <si>
+    <t>NP1004</t>
+  </si>
+  <si>
+    <t>NP1003</t>
+  </si>
+  <si>
+    <t>₹ 500</t>
+  </si>
+  <si>
+    <t>Trigonometry</t>
+  </si>
+  <si>
+    <t>Trigonometry, Triangles</t>
+  </si>
+  <si>
+    <t>Circles, Quadrilaterals</t>
+  </si>
+  <si>
+    <t>NP120</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>NP121</t>
+  </si>
+  <si>
+    <t>Discrete Probability</t>
+  </si>
+  <si>
+    <t>Axioms, Random Variables</t>
+  </si>
+  <si>
+    <t>Tangent and Normal</t>
+  </si>
+  <si>
+    <t>Vector Algebra, Matrices, 3D geometry, Circles</t>
+  </si>
+  <si>
+    <t>Differentiation, Applications</t>
+  </si>
+  <si>
+    <t>NP123</t>
+  </si>
+  <si>
+    <t>NP122</t>
+  </si>
+  <si>
+    <t>Areas</t>
+  </si>
+  <si>
+    <t>Integration, Area under curves</t>
+  </si>
+  <si>
+    <t>₹ 4000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -365,6 +460,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="3">
@@ -408,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -446,6 +546,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E2B5CB-EFE8-C444-934D-268042173892}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1463,4 +1570,249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F752A1AB-62C8-4D44-B3EC-FEFC94A48C89}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.4375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6674D74-6C04-D946-8A9B-E177A1232D9C}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.62109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="15">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="15">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/courses.xlsx
+++ b/tables/courses.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuch\WiSig Dropbox\kiran kuchi\work\WiSig\wisigppts\FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D1F2BAB8-E297-204A-B624-83500FE255B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{8C75F7C2-B145-F94E-95B7-6EC3076C3171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hardware" sheetId="6" r:id="rId1"/>
-    <sheet name="software" sheetId="8" r:id="rId2"/>
-    <sheet name="school" sheetId="9" r:id="rId3"/>
-    <sheet name="college" sheetId="10" r:id="rId4"/>
+    <sheet name="Class 10" sheetId="9" r:id="rId1"/>
+    <sheet name="Class 12" sheetId="10" r:id="rId2"/>
+    <sheet name="Software" sheetId="8" r:id="rId3"/>
+    <sheet name="Hardware" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="154">
   <si>
     <t>Platform</t>
   </si>
@@ -53,18 +53,12 @@
     <t>Cost/person</t>
   </si>
   <si>
-    <t>NP00</t>
-  </si>
-  <si>
     <t>₹ 5000</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>NP10</t>
-  </si>
-  <si>
     <t>Digital Design through Arduino</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>₹ 10000</t>
   </si>
   <si>
-    <t>NP11</t>
-  </si>
-  <si>
     <t>Prerequisites</t>
   </si>
   <si>
@@ -86,15 +77,9 @@
     <t>Assembly Programming through Arduino</t>
   </si>
   <si>
-    <t>NP12</t>
-  </si>
-  <si>
     <t>Embedded C through Arduino</t>
   </si>
   <si>
-    <t>NP20</t>
-  </si>
-  <si>
     <t>Digital Design through ESP32</t>
   </si>
   <si>
@@ -107,12 +92,6 @@
     <t>Platformio, Combinational and Sequential Logic using the Arduino Framework, Porting digital logic to the arduino using Platformio,  GATE exercises.</t>
   </si>
   <si>
-    <t>NP30</t>
-  </si>
-  <si>
-    <t>NP40</t>
-  </si>
-  <si>
     <t>₹ 20000</t>
   </si>
   <si>
@@ -128,36 +107,21 @@
     <t>ESP-IDF programming</t>
   </si>
   <si>
-    <t>NP21</t>
-  </si>
-  <si>
-    <t>NP31</t>
-  </si>
-  <si>
     <t>Aseembly programming through Pico</t>
   </si>
   <si>
-    <t>NP50</t>
-  </si>
-  <si>
     <t>Digital Design through STM32</t>
   </si>
   <si>
     <t xml:space="preserve">Platformio, Combinational and Sequential Logic using the Arduino Framework, Porting digital logic to the arduino using Platformio,  GATE exercises </t>
   </si>
   <si>
-    <t>NP32</t>
-  </si>
-  <si>
     <t>Embedded C through Pico</t>
   </si>
   <si>
     <t>Embedded C through STM32</t>
   </si>
   <si>
-    <t>NP51</t>
-  </si>
-  <si>
     <t>Mandatory package installations, neovim/ranger, linux terminal, latex for documentation, shell scripts</t>
   </si>
   <si>
@@ -179,9 +143,6 @@
     <t>Course No</t>
   </si>
   <si>
-    <t>NP60</t>
-  </si>
-  <si>
     <t>Duration (Hours)</t>
   </si>
   <si>
@@ -191,36 +152,18 @@
     <t>ESP/FPGA/ARM co-processing</t>
   </si>
   <si>
-    <t>NP10, NP11, NP20, NP40</t>
-  </si>
-  <si>
     <t>Wired Protocols</t>
   </si>
   <si>
     <t>UART/SPI/I2C/RS-485 configuration/programming in embedded systems/sensor networks</t>
   </si>
   <si>
-    <t>NP70</t>
-  </si>
-  <si>
-    <t>NP71</t>
-  </si>
-  <si>
     <t>Digital Design through PI</t>
   </si>
   <si>
-    <t>NP10, Wiring Pi, Python RPi.GPIO</t>
-  </si>
-  <si>
     <t>RPi</t>
   </si>
   <si>
-    <t>NP60, NP70</t>
-  </si>
-  <si>
-    <t>NP61</t>
-  </si>
-  <si>
     <t>Unmanned Ground Vehicles</t>
   </si>
   <si>
@@ -251,9 +194,6 @@
     <t>₹ 40000</t>
   </si>
   <si>
-    <t>NP80</t>
-  </si>
-  <si>
     <t>Random Variables through Simulation</t>
   </si>
   <si>
@@ -272,36 +212,15 @@
     <t>Butterworth and Chebyschev</t>
   </si>
   <si>
-    <t>NP90</t>
-  </si>
-  <si>
-    <t>NP81</t>
-  </si>
-  <si>
     <t>Math Computing on Hardware</t>
   </si>
   <si>
-    <t>NP82</t>
-  </si>
-  <si>
-    <t>NP83</t>
-  </si>
-  <si>
-    <t>NP84</t>
-  </si>
-  <si>
     <t>C programming on hardware</t>
   </si>
   <si>
-    <t>NP85</t>
-  </si>
-  <si>
     <t xml:space="preserve">Python for Math Computing </t>
   </si>
   <si>
-    <t>NP01</t>
-  </si>
-  <si>
     <t>C Programming in High School</t>
   </si>
   <si>
@@ -311,27 +230,12 @@
     <t>Triangle, Circle, Python math libraries</t>
   </si>
   <si>
-    <t>NP20, NP80, NP01</t>
-  </si>
-  <si>
-    <t>NP22</t>
-  </si>
-  <si>
-    <t>NP02</t>
-  </si>
-  <si>
     <t>Scientific Computing through C</t>
   </si>
   <si>
     <t>Numerical methods for ODE, minimization algorithms, linear and polynomial equations</t>
   </si>
   <si>
-    <t>NP80, NP01</t>
-  </si>
-  <si>
-    <t>NP1000</t>
-  </si>
-  <si>
     <t>Nonlinear Polynomials</t>
   </si>
   <si>
@@ -359,18 +263,6 @@
     <t>Coordinate Geometry, Linear Equations</t>
   </si>
   <si>
-    <t>NP1001</t>
-  </si>
-  <si>
-    <t>NP1002</t>
-  </si>
-  <si>
-    <t>NP1004</t>
-  </si>
-  <si>
-    <t>NP1003</t>
-  </si>
-  <si>
     <t>₹ 500</t>
   </si>
   <si>
@@ -420,6 +312,117 @@
   </si>
   <si>
     <t>₹ 4000</t>
+  </si>
+  <si>
+    <t>NP100</t>
+  </si>
+  <si>
+    <t>NP101</t>
+  </si>
+  <si>
+    <t>NP102</t>
+  </si>
+  <si>
+    <t>NP103</t>
+  </si>
+  <si>
+    <t>NP104</t>
+  </si>
+  <si>
+    <t>NP105</t>
+  </si>
+  <si>
+    <t>NP130</t>
+  </si>
+  <si>
+    <t>NP131</t>
+  </si>
+  <si>
+    <t>NP130, NP131</t>
+  </si>
+  <si>
+    <t>NP132</t>
+  </si>
+  <si>
+    <t>NP133</t>
+  </si>
+  <si>
+    <t>NP134</t>
+  </si>
+  <si>
+    <t>NP135</t>
+  </si>
+  <si>
+    <t>NP136</t>
+  </si>
+  <si>
+    <t>NP137</t>
+  </si>
+  <si>
+    <t>NP138</t>
+  </si>
+  <si>
+    <t>NP1400</t>
+  </si>
+  <si>
+    <t>NP1401</t>
+  </si>
+  <si>
+    <t>NP1401, Wiring Pi, Python RPi.GPIO</t>
+  </si>
+  <si>
+    <t>NP1402</t>
+  </si>
+  <si>
+    <t>NP1403</t>
+  </si>
+  <si>
+    <t>NP1404</t>
+  </si>
+  <si>
+    <t>NP1404, NP80, NP01</t>
+  </si>
+  <si>
+    <t>NP1405</t>
+  </si>
+  <si>
+    <t>NP1406</t>
+  </si>
+  <si>
+    <t>NP1407</t>
+  </si>
+  <si>
+    <t>NP1408</t>
+  </si>
+  <si>
+    <t>NP1409</t>
+  </si>
+  <si>
+    <t>NP1401, NP1402, NP1404, NP1409</t>
+  </si>
+  <si>
+    <t>NP1410</t>
+  </si>
+  <si>
+    <t>NP1411</t>
+  </si>
+  <si>
+    <t>NP1412</t>
+  </si>
+  <si>
+    <t>NP1413</t>
+  </si>
+  <si>
+    <t>NP1414</t>
+  </si>
+  <si>
+    <t>NP1412, NP1414</t>
+  </si>
+  <si>
+    <t>NP1415</t>
+  </si>
+  <si>
+    <t>NP1416</t>
   </si>
 </sst>
 </file>
@@ -861,11 +864,514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F752A1AB-62C8-4D44-B3EC-FEFC94A48C89}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.4375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6674D74-6C04-D946-8A9B-E177A1232D9C}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.62109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="15">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="15">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E2B5CB-EFE8-C444-934D-268042173892}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.7421875" customWidth="1"/>
+    <col min="2" max="2" width="18.0234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.65625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2">
+        <v>60</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>120</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2">
+        <v>120</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2">
+        <v>120</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2">
+        <v>120</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2">
+        <v>120</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B81D31-379E-B84C-A51B-FE182D778EF4}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -882,16 +1388,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -900,916 +1406,413 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <f>2*30</f>
         <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D13" si="0">2*30</f>
         <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3">
         <f>2*30</f>
         <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2">
         <v>60</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3">
         <f>2*30</f>
         <v>60</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3">
         <f>2*30</f>
         <v>60</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E2B5CB-EFE8-C444-934D-268042173892}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.7421875" customWidth="1"/>
-    <col min="2" max="2" width="18.0234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.65625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.56640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="2">
-        <v>60</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="2">
-        <v>60</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2">
-        <v>120</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="2">
-        <v>120</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2">
-        <v>120</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2">
-        <v>120</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2">
-        <v>120</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="2">
-        <v>60</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F752A1AB-62C8-4D44-B3EC-FEFC94A48C89}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="22.1953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.4375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="13">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="13">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="13">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6674D74-6C04-D946-8A9B-E177A1232D9C}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.1875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.62109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="15">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="15">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="15">
-        <v>4</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="15">
-        <v>4</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
